--- a/HeatData.xlsx
+++ b/HeatData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Colab Notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFA8AA96-510E-4BD9-AD6E-2A476F34EBE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD439F13-F642-4D1A-89FC-95BC4B85540E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{C1863F03-C8B0-4FD3-84A6-26A99381A97C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -405,21 +406,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F38E405-4865-426F-8BE0-01842E3CC413}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1.9</v>
+      </c>
+      <c r="B1">
+        <v>53.4</v>
+      </c>
+      <c r="C1">
+        <v>45.4</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>8.1</v>
+      </c>
+      <c r="F1">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1.9</v>
+      </c>
+      <c r="B2">
+        <v>53.1</v>
+      </c>
+      <c r="C2">
+        <v>44.1</v>
+      </c>
+      <c r="D2">
+        <v>1.5</v>
+      </c>
+      <c r="E2">
+        <v>7.8</v>
+      </c>
+      <c r="F2">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>52.6</v>
+      </c>
+      <c r="C3">
+        <v>43.3</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>7.5</v>
+      </c>
+      <c r="F3">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1.9</v>
+      </c>
+      <c r="B4">
+        <v>53.2</v>
+      </c>
+      <c r="C4">
+        <v>42.3</v>
+      </c>
+      <c r="D4">
+        <v>2.4</v>
+      </c>
+      <c r="E4">
+        <v>7.4</v>
+      </c>
+      <c r="F4">
+        <v>15.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44112B98-E51D-49AD-A998-ABCC10736E8F}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
